--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC04_Search_product_not_in_Catalog.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC04_Search_product_not_in_Catalog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCC446-1812-4AB5-B2D7-6C6D84329AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466A30F-F1DC-489E-8CAE-E7E77CDB4439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,14 +508,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
@@ -633,7 +633,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" activeCellId="1" sqref="A6:XFD6 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
